--- a/data/trans_orig/P6603-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6603-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1D63355-F974-4FBE-895F-0993DA87050A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E0D161A-FE07-4D3E-9A66-9A3CCBCCB06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5E65870C-0BCE-4019-B39B-44A489BAC3F1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E74FBE9-0774-446B-AE5B-5FE61877C601}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="844">
   <si>
     <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>57,08%</t>
   </si>
   <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,28 +107,28 @@
     <t>21,27%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
   </si>
   <si>
     <t>11,55%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -137,2379 +137,2388 @@
     <t>17,61%</t>
   </si>
   <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
   </si>
   <si>
     <t>69,7%</t>
   </si>
   <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a respirar vapores, humos, polvo, o sustancias peligrosas.../Manejar o tocas sustancias o productos peligrosos/Radiaciones como rayos X, soldadura, rayos láseren su trabajo en 2023 (Tasa respuesta: 20,48%)</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
     <t>21,55%</t>
   </si>
   <si>
@@ -2534,18 +2543,9 @@
     <t>25,97%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
     <t>2,76%</t>
   </si>
   <si>
@@ -2568,9 +2568,6 @@
   </si>
   <si>
     <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
   </si>
   <si>
     <t>2,66%</t>
@@ -2985,7 +2982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290E7341-95AA-4C19-BAEE-DAE37CAD051F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924D009E-8DAD-402C-AED8-59780B880CFC}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3916,7 +3913,7 @@
         <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3928,13 @@
         <v>78181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -3946,13 +3943,13 @@
         <v>14546</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -3961,13 +3958,13 @@
         <v>92728</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3979,13 @@
         <v>40638</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -3997,13 +3994,13 @@
         <v>10217</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>50</v>
@@ -4012,13 +4009,13 @@
         <v>50855</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4030,13 @@
         <v>15996</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -4048,7 +4045,7 @@
         <v>2159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>44</v>
@@ -4063,13 +4060,13 @@
         <v>18154</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4122,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4137,13 +4134,13 @@
         <v>97780</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -4152,13 +4149,13 @@
         <v>54227</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>152</v>
@@ -4167,13 +4164,13 @@
         <v>152006</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4185,13 @@
         <v>31792</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -4203,13 +4200,13 @@
         <v>4029</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>35</v>
@@ -4218,13 +4215,13 @@
         <v>35821</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4236,13 @@
         <v>21191</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -4254,13 +4251,13 @@
         <v>5016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -4269,13 +4266,13 @@
         <v>26207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4287,13 @@
         <v>12605</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -4305,13 +4302,13 @@
         <v>1013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>14</v>
@@ -4320,7 +4317,7 @@
         <v>13618</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>190</v>
@@ -4720,10 +4717,10 @@
         <v>218</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M35" s="7">
         <v>394</v>
@@ -4732,13 +4729,13 @@
         <v>416316</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4750,13 @@
         <v>208327</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H36" s="7">
         <v>42</v>
@@ -4768,13 +4765,13 @@
         <v>44321</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="M36" s="7">
         <v>247</v>
@@ -4783,13 +4780,13 @@
         <v>252647</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4801,13 @@
         <v>77790</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -4819,13 +4816,13 @@
         <v>14014</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M37" s="7">
         <v>85</v>
@@ -4834,13 +4831,13 @@
         <v>91805</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,7 +4893,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4918,7 +4915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780DE4C2-A36B-4CE8-B840-0D579FE44509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71390D0-3C88-42F9-8530-E685041BADC7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4935,7 +4932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5042,13 +5039,13 @@
         <v>43951</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>69</v>
@@ -5057,13 +5054,13 @@
         <v>70162</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M4" s="7">
         <v>111</v>
@@ -5072,13 +5069,13 @@
         <v>114113</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5090,13 @@
         <v>22822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5108,13 +5105,13 @@
         <v>8147</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -5123,13 +5120,13 @@
         <v>30969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,10 +5144,10 @@
         <v>218</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -5159,13 +5156,13 @@
         <v>7558</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -5174,13 +5171,13 @@
         <v>15409</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5192,13 @@
         <v>7256</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5210,13 +5207,13 @@
         <v>1934</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5225,13 +5222,13 @@
         <v>9190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5296,13 @@
         <v>233566</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H9" s="7">
         <v>206</v>
@@ -5314,13 +5311,13 @@
         <v>221710</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M9" s="7">
         <v>433</v>
@@ -5329,13 +5326,13 @@
         <v>455275</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5347,13 @@
         <v>77588</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -5365,13 +5362,13 @@
         <v>34088</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
         <v>106</v>
@@ -5380,13 +5377,13 @@
         <v>111676</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5401,13 +5398,13 @@
         <v>38192</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>291</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5416,13 +5413,13 @@
         <v>12016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>293</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -5431,13 +5428,13 @@
         <v>50209</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5449,13 @@
         <v>30588</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -5467,13 +5464,13 @@
         <v>9378</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -5482,13 +5479,13 @@
         <v>39966</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>253</v>
+        <v>309</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5553,13 @@
         <v>234012</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -5571,13 +5568,13 @@
         <v>210138</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>428</v>
@@ -5586,13 +5583,13 @@
         <v>444151</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5604,13 @@
         <v>110152</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="H15" s="7">
         <v>45</v>
@@ -5622,13 +5619,13 @@
         <v>46229</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M15" s="7">
         <v>150</v>
@@ -5637,13 +5634,13 @@
         <v>156381</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5655,13 @@
         <v>52316</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>142</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -5673,13 +5670,13 @@
         <v>17267</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -5688,13 +5685,13 @@
         <v>69583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5706,13 @@
         <v>29672</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5724,13 +5721,13 @@
         <v>11186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>38</v>
@@ -5739,13 +5736,13 @@
         <v>40858</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5810,13 @@
         <v>213006</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -5828,13 +5825,13 @@
         <v>183506</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
         <v>346</v>
@@ -5843,13 +5840,13 @@
         <v>396511</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5861,13 @@
         <v>87841</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
         <v>24</v>
@@ -5879,13 +5876,13 @@
         <v>27315</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>352</v>
+        <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>38</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M20" s="7">
         <v>104</v>
@@ -5894,13 +5891,13 @@
         <v>115156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5912,13 @@
         <v>44636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>352</v>
+        <v>66</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -5930,13 +5927,13 @@
         <v>7246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M21" s="7">
         <v>44</v>
@@ -5945,13 +5942,13 @@
         <v>51883</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5963,13 @@
         <v>21118</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -5981,13 +5978,13 @@
         <v>6155</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -5996,13 +5993,13 @@
         <v>27274</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6055,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6070,13 +6067,13 @@
         <v>93285</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H24" s="7">
         <v>45</v>
@@ -6085,13 +6082,13 @@
         <v>48872</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M24" s="7">
         <v>131</v>
@@ -6100,13 +6097,13 @@
         <v>142156</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6118,13 @@
         <v>29708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -6136,13 +6133,13 @@
         <v>14176</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6151,13 +6148,13 @@
         <v>43884</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6169,13 @@
         <v>23709</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -6187,13 +6184,13 @@
         <v>5323</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>392</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -6202,13 +6199,13 @@
         <v>29033</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6220,13 @@
         <v>10648</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>397</v>
+        <v>273</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -6238,13 +6235,13 @@
         <v>1320</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -6253,13 +6250,13 @@
         <v>11968</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +6324,7 @@
         <v>1017</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>44</v>
@@ -6345,7 +6342,7 @@
         <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -6357,10 +6354,10 @@
         <v>3855</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>195</v>
@@ -6378,7 +6375,7 @@
         <v>1000</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>44</v>
@@ -6399,7 +6396,7 @@
         <v>45</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6408,13 +6405,13 @@
         <v>1000</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,7 +6426,7 @@
         <v>1000</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>44</v>
@@ -6450,7 +6447,7 @@
         <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M31" s="7">
         <v>1</v>
@@ -6459,13 +6456,13 @@
         <v>1000</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +6483,7 @@
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6501,7 +6498,7 @@
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6516,7 +6513,7 @@
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,13 +6581,13 @@
         <v>818836</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H34" s="7">
         <v>680</v>
@@ -6599,13 +6596,13 @@
         <v>737225</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M34" s="7">
         <v>1453</v>
@@ -6614,13 +6611,13 @@
         <v>1556062</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6632,13 @@
         <v>329111</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H35" s="7">
         <v>121</v>
@@ -6650,13 +6647,13 @@
         <v>129955</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>99</v>
+        <v>431</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>101</v>
+        <v>432</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="M35" s="7">
         <v>430</v>
@@ -6665,13 +6662,13 @@
         <v>459066</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6683,13 @@
         <v>167704</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>431</v>
+        <v>324</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H36" s="7">
         <v>45</v>
@@ -6701,13 +6698,13 @@
         <v>49412</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M36" s="7">
         <v>201</v>
@@ -6716,13 +6713,13 @@
         <v>217116</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>43</v>
+        <v>442</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6737,13 +6734,13 @@
         <v>99283</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H37" s="7">
         <v>28</v>
@@ -6752,13 +6749,13 @@
         <v>29973</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M37" s="7">
         <v>118</v>
@@ -6767,13 +6764,13 @@
         <v>129256</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,7 +6826,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -6851,7 +6848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7CC160-D294-40DE-A59C-CE6084186774}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FABE8F0-33A6-4134-A3AE-3DC24BE64891}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6868,7 +6865,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6975,13 +6972,13 @@
         <v>44751</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="H4" s="7">
         <v>72</v>
@@ -6990,13 +6987,13 @@
         <v>70023</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>457</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M4" s="7">
         <v>114</v>
@@ -7005,13 +7002,13 @@
         <v>114774</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +7023,13 @@
         <v>18825</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -7041,13 +7038,13 @@
         <v>12039</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M5" s="7">
         <v>30</v>
@@ -7056,13 +7053,13 @@
         <v>30864</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7074,13 @@
         <v>11327</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7092,13 +7089,13 @@
         <v>7930</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -7110,10 +7107,10 @@
         <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7125,13 @@
         <v>4206</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -7143,13 +7140,13 @@
         <v>1863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>123</v>
+        <v>479</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -7158,13 +7155,13 @@
         <v>6068</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,13 +7229,13 @@
         <v>189735</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="H9" s="7">
         <v>212</v>
@@ -7247,13 +7244,13 @@
         <v>206835</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="M9" s="7">
         <v>394</v>
@@ -7262,13 +7259,13 @@
         <v>396570</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7280,13 @@
         <v>95579</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -7298,13 +7295,13 @@
         <v>48967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -7313,13 +7310,13 @@
         <v>144546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7331,13 @@
         <v>41079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -7349,13 +7346,13 @@
         <v>15046</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>84</v>
+        <v>505</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -7364,13 +7361,13 @@
         <v>56126</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7382,13 @@
         <v>16835</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>505</v>
+        <v>372</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>511</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7400,13 +7397,13 @@
         <v>2868</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>180</v>
+        <v>514</v>
       </c>
       <c r="M12" s="7">
         <v>19</v>
@@ -7415,13 +7412,13 @@
         <v>19703</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>510</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7486,13 @@
         <v>264035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="H14" s="7">
         <v>253</v>
@@ -7504,13 +7501,13 @@
         <v>252516</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="M14" s="7">
         <v>503</v>
@@ -7519,13 +7516,13 @@
         <v>516550</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7537,13 @@
         <v>109139</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -7555,13 +7552,13 @@
         <v>35811</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M15" s="7">
         <v>139</v>
@@ -7573,10 +7570,10 @@
         <v>201</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7588,13 @@
         <v>68330</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -7606,13 +7603,13 @@
         <v>20074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>530</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -7621,13 +7618,13 @@
         <v>88404</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>534</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7639,13 @@
         <v>15475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>536</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -7657,13 +7654,13 @@
         <v>8008</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -7672,13 +7669,13 @@
         <v>23483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,13 +7743,13 @@
         <v>199398</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H19" s="7">
         <v>159</v>
@@ -7761,13 +7758,13 @@
         <v>175345</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="M19" s="7">
         <v>337</v>
@@ -7776,13 +7773,13 @@
         <v>374743</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,13 +7794,13 @@
         <v>99987</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>553</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -7812,13 +7809,13 @@
         <v>42559</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="M20" s="7">
         <v>131</v>
@@ -7827,13 +7824,13 @@
         <v>142547</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,13 +7845,13 @@
         <v>46315</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -7863,13 +7860,13 @@
         <v>16293</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>87</v>
+        <v>568</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="M21" s="7">
         <v>58</v>
@@ -7878,13 +7875,13 @@
         <v>62608</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,13 +7896,13 @@
         <v>17820</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -7914,13 +7911,13 @@
         <v>7924</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -7929,13 +7926,13 @@
         <v>25744</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7991,7 +7988,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8003,13 +8000,13 @@
         <v>99418</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="H24" s="7">
         <v>64</v>
@@ -8018,13 +8015,13 @@
         <v>76468</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="M24" s="7">
         <v>151</v>
@@ -8033,13 +8030,13 @@
         <v>175886</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8051,13 @@
         <v>39534</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -8069,13 +8066,13 @@
         <v>22613</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -8084,13 +8081,13 @@
         <v>62146</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8102,13 @@
         <v>20384</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>467</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -8120,13 +8117,13 @@
         <v>3413</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -8135,13 +8132,13 @@
         <v>23797</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>596</v>
+        <v>408</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,13 +8153,13 @@
         <v>4257</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>601</v>
+        <v>367</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -8171,13 +8168,13 @@
         <v>3385</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>232</v>
+        <v>609</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>603</v>
+        <v>138</v>
       </c>
       <c r="M27" s="7">
         <v>7</v>
@@ -8186,13 +8183,13 @@
         <v>7642</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>605</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>445</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,10 +8257,10 @@
         <v>3989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>613</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>195</v>
@@ -8278,7 +8275,7 @@
         <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>50</v>
@@ -8290,10 +8287,10 @@
         <v>9180</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>195</v>
@@ -8311,13 +8308,13 @@
         <v>1050</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8341,13 +8338,13 @@
         <v>1050</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8362,13 +8359,13 @@
         <v>946</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>621</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>421</v>
+        <v>622</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -8392,13 +8389,13 @@
         <v>946</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8419,7 +8416,7 @@
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8449,7 +8446,7 @@
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8514,16 +8511,16 @@
         <v>743</v>
       </c>
       <c r="D34" s="7">
-        <v>801326</v>
+        <v>801327</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="H34" s="7">
         <v>765</v>
@@ -8532,13 +8529,13 @@
         <v>786377</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>344</v>
+        <v>628</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="M34" s="7">
         <v>1508</v>
@@ -8547,13 +8544,13 @@
         <v>1587703</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>622</v>
+        <v>352</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8565,13 @@
         <v>364115</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="H35" s="7">
         <v>161</v>
@@ -8583,13 +8580,13 @@
         <v>161989</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>470</v>
+        <v>638</v>
       </c>
       <c r="M35" s="7">
         <v>500</v>
@@ -8598,13 +8595,13 @@
         <v>526103</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8619,13 +8616,13 @@
         <v>188380</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>633</v>
+        <v>184</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="H36" s="7">
         <v>62</v>
@@ -8634,13 +8631,13 @@
         <v>62756</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>467</v>
+        <v>645</v>
       </c>
       <c r="M36" s="7">
         <v>240</v>
@@ -8649,13 +8646,13 @@
         <v>251137</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>636</v>
+        <v>301</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>638</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8670,13 +8667,13 @@
         <v>58594</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>640</v>
+        <v>515</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="H37" s="7">
         <v>23</v>
@@ -8685,13 +8682,13 @@
         <v>24047</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -8700,13 +8697,13 @@
         <v>82641</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8718,7 +8715,7 @@
         <v>1314</v>
       </c>
       <c r="D38" s="7">
-        <v>1412415</v>
+        <v>1412416</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -8762,7 +8759,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -8784,7 +8781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9216F1BD-1B09-4A5F-A3F5-1C1DD1FAD865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7E6EBB-794C-4713-9C7F-F56ED9160FCD}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8801,7 +8798,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8908,13 +8905,13 @@
         <v>19204</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -8923,13 +8920,13 @@
         <v>26031</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="M4" s="7">
         <v>28</v>
@@ -8938,13 +8935,13 @@
         <v>45235</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8959,13 +8956,13 @@
         <v>13214</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -8974,13 +8971,13 @@
         <v>13995</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>660</v>
+        <v>531</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -8989,13 +8986,13 @@
         <v>27209</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9010,13 +9007,13 @@
         <v>3230</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>446</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -9025,13 +9022,13 @@
         <v>1436</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -9040,13 +9037,13 @@
         <v>4666</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>670</v>
+        <v>373</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9061,13 +9058,13 @@
         <v>1953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -9076,13 +9073,13 @@
         <v>1868</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -9091,13 +9088,13 @@
         <v>3821</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9165,13 +9162,13 @@
         <v>92645</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="H9" s="7">
         <v>114</v>
@@ -9180,13 +9177,13 @@
         <v>116850</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="M9" s="7">
         <v>176</v>
@@ -9195,13 +9192,13 @@
         <v>209495</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9216,13 +9213,13 @@
         <v>55379</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -9231,13 +9228,13 @@
         <v>31033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>598</v>
+        <v>694</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -9246,13 +9243,13 @@
         <v>86412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>690</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9267,13 +9264,13 @@
         <v>25208</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -9282,13 +9279,13 @@
         <v>2671</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -9297,13 +9294,13 @@
         <v>27879</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>635</v>
+        <v>703</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9318,13 +9315,13 @@
         <v>5170</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>700</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -9333,13 +9330,13 @@
         <v>6899</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -9348,10 +9345,10 @@
         <v>12069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>113</v>
@@ -9422,13 +9419,13 @@
         <v>156235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>706</v>
+        <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="H14" s="7">
         <v>177</v>
@@ -9437,13 +9434,13 @@
         <v>120070</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="M14" s="7">
         <v>321</v>
@@ -9452,13 +9449,13 @@
         <v>276304</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9473,13 +9470,13 @@
         <v>62396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H15" s="7">
         <v>41</v>
@@ -9488,13 +9485,13 @@
         <v>29969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>472</v>
+        <v>722</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="M15" s="7">
         <v>107</v>
@@ -9503,13 +9500,13 @@
         <v>92365</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9524,13 +9521,13 @@
         <v>19833</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>724</v>
+        <v>644</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -9539,13 +9536,13 @@
         <v>8790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -9554,13 +9551,13 @@
         <v>28623</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>728</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9575,13 +9572,13 @@
         <v>5702</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -9590,13 +9587,13 @@
         <v>10980</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>733</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -9605,13 +9602,13 @@
         <v>16682</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>238</v>
+        <v>739</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9679,13 +9676,13 @@
         <v>217369</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="H19" s="7">
         <v>253</v>
@@ -9694,13 +9691,13 @@
         <v>171379</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="M19" s="7">
         <v>415</v>
@@ -9709,13 +9706,13 @@
         <v>388748</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9730,13 +9727,13 @@
         <v>77999</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -9745,13 +9742,13 @@
         <v>44963</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="M20" s="7">
         <v>147</v>
@@ -9760,13 +9757,13 @@
         <v>122963</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9781,13 +9778,13 @@
         <v>19050</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>227</v>
+        <v>758</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -9796,13 +9793,13 @@
         <v>11749</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -9811,13 +9808,13 @@
         <v>30800</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9832,13 +9829,13 @@
         <v>9480</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>505</v>
+        <v>765</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -9847,10 +9844,10 @@
         <v>6104</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>110</v>
@@ -9862,13 +9859,13 @@
         <v>15583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9924,7 +9921,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9936,13 +9933,13 @@
         <v>100372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H24" s="7">
         <v>123</v>
@@ -9951,13 +9948,13 @@
         <v>69930</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="M24" s="7">
         <v>226</v>
@@ -9966,13 +9963,13 @@
         <v>170301</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9987,13 +9984,13 @@
         <v>37940</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -10002,13 +9999,13 @@
         <v>21665</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>778</v>
+        <v>362</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="M25" s="7">
         <v>79</v>
@@ -10017,13 +10014,13 @@
         <v>59604</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10038,13 +10035,13 @@
         <v>14529</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>404</v>
+        <v>787</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -10053,13 +10050,13 @@
         <v>3228</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>35</v>
+        <v>790</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -10068,13 +10065,13 @@
         <v>17757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10089,13 +10086,13 @@
         <v>8400</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -10104,13 +10101,13 @@
         <v>2479</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -10119,13 +10116,13 @@
         <v>10879</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>792</v>
+        <v>87</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>794</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10193,13 +10190,13 @@
         <v>6575</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -10208,13 +10205,13 @@
         <v>6224</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -10223,13 +10220,13 @@
         <v>12799</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10244,13 +10241,13 @@
         <v>1825</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>149</v>
+        <v>451</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -10259,13 +10256,13 @@
         <v>2961</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>807</v>
+        <v>572</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>808</v>
+        <v>382</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -10274,13 +10271,13 @@
         <v>4786</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10301,7 +10298,7 @@
         <v>45</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10316,7 +10313,7 @@
         <v>45</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -10331,7 +10328,7 @@
         <v>45</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10352,7 +10349,7 @@
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -10367,7 +10364,7 @@
         <v>45</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -10382,7 +10379,7 @@
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10450,13 +10447,13 @@
         <v>592400</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H34" s="7">
         <v>696</v>
@@ -10465,13 +10462,13 @@
         <v>510483</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="M34" s="7">
         <v>1188</v>
@@ -10480,13 +10477,13 @@
         <v>1102883</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10501,13 +10498,13 @@
         <v>248752</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="H35" s="7">
         <v>191</v>
@@ -10516,13 +10513,13 @@
         <v>144586</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="M35" s="7">
         <v>428</v>
@@ -10531,13 +10528,13 @@
         <v>393338</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10552,13 +10549,13 @@
         <v>81850</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>831</v>
+        <v>502</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>833</v>
+        <v>62</v>
       </c>
       <c r="H36" s="7">
         <v>38</v>
@@ -10567,7 +10564,7 @@
         <v>27874</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>834</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>835</v>
@@ -10603,7 +10600,7 @@
         <v>30704</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>840</v>
@@ -10621,7 +10618,7 @@
         <v>842</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>843</v>
+        <v>407</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>836</v>
@@ -10633,13 +10630,13 @@
         <v>59034</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10695,7 +10692,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
